--- a/Completed Projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
+++ b/Completed Projects/Riazeda/VO/01- variation order for ductings & fans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBA9B1-A9AC-4D04-9DEA-9742CDF2DED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F238AF6-7FFB-4B24-84CD-8104DA74C453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A7:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +959,7 @@
         <v>410</v>
       </c>
       <c r="G32" s="12">
-        <f>SUM(C32+D32)*F32</f>
+        <f t="shared" ref="G32:G37" si="0">SUM(C32+D32)*F32</f>
         <v>217300</v>
       </c>
     </row>
@@ -983,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="12">
-        <f>SUM(C33+D33)*F33</f>
+        <f t="shared" si="0"/>
         <v>46000</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12">
-        <f>SUM(C34+D34)*F34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="12">
-        <f>SUM(C35+D35)*F35</f>
+        <f t="shared" si="0"/>
         <v>52000</v>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="12">
-        <f>SUM(C36+D36)*F36</f>
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="12">
-        <f>SUM(C37+D37)*F37</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
